--- a/github_files/Table1.xlsx
+++ b/github_files/Table1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emory-my.sharepoint.com/personal/hmumme_emory_edu/Documents/PediatricSCAtlas/PedSCAtlas-Paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="222" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15571D27-0F55-425F-BA69-573F751E2E8E}"/>
+  <xr:revisionPtr revIDLastSave="234" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5D7F46B-6DFC-4765-937D-35B8A49F570C}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="2900" windowWidth="16810" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5265" yWindow="1215" windowWidth="21600" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,9 +85,6 @@
     <t>Disease Group</t>
   </si>
   <si>
-    <t>PediatricCancer, Biomarkers</t>
-  </si>
-  <si>
     <t>PedSCAtlas Modules</t>
   </si>
   <si>
@@ -131,13 +128,16 @@
   </si>
   <si>
     <t>Bailur et al., GSE154109</t>
+  </si>
+  <si>
+    <t>Single Cell, Biomarkers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +166,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -413,10 +428,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -442,83 +458,102 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -834,22 +869,22 @@
   <dimension ref="B1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="16.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.08984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.453125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="17.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -858,12 +893,12 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="2:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>1</v>
@@ -881,359 +916,365 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="9" t="s">
+    <row r="3" spans="2:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="9">
         <v>20</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="11">
         <v>65732</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18" t="s">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="26"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="12">
         <v>3</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="14">
         <v>10961</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18" t="s">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="26"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="12">
         <v>2</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="14">
         <v>5443</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18" t="s">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="26"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="12">
         <v>10</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="14">
         <v>28218</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18" t="s">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="26"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="12">
         <v>4</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="14">
         <v>8349</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17" t="s">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="26"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="12">
         <v>20</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="14">
         <v>86133</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18" t="s">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="26"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="12">
         <v>2</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="14">
         <v>12155</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18" t="s">
+    <row r="10" spans="2:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="26"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="12">
         <v>2</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="14">
         <v>13000</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="33" t="s">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="26"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="12">
+        <v>8</v>
+      </c>
+      <c r="H11" s="14">
+        <v>12267</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="26"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="12">
+        <v>7</v>
+      </c>
+      <c r="H12" s="14">
+        <v>10892</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="23"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="15">
+        <v>4</v>
+      </c>
+      <c r="H13" s="17">
+        <v>5944</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="D14" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="9">
+        <v>18</v>
+      </c>
+      <c r="H14" s="11">
+        <v>237734</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="23"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="15">
+        <v>22</v>
+      </c>
+      <c r="H15" s="17">
+        <v>183365</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="21">
+        <v>391505</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="19">
-        <v>8</v>
-      </c>
-      <c r="H11" s="20">
-        <v>12267</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="18" t="s">
+      <c r="G17" s="9">
+        <v>274</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="26"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="19">
-        <v>7</v>
-      </c>
-      <c r="H12" s="20">
-        <v>10892</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="25">
-        <v>4</v>
-      </c>
-      <c r="H13" s="26">
-        <v>5944</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="12" t="s">
+      <c r="G18" s="12">
+        <v>11</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="26"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="12">
+        <v>264</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="26"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="12">
+        <v>23</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="26"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="12">
         <v>29</v>
       </c>
-      <c r="G14" s="13">
-        <v>18</v>
-      </c>
-      <c r="H14" s="14">
-        <v>237734</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="25">
-        <v>22</v>
-      </c>
-      <c r="H15" s="26">
-        <v>183365</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="31" t="s">
+      <c r="H21" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="32">
-        <v>391505</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="11" t="s">
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="26"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="13">
-        <v>274</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B18" s="15"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="19">
-        <v>11</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B19" s="15"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="19">
-        <v>264</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B20" s="15"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="19">
+      <c r="G22" s="12">
+        <v>40</v>
+      </c>
+      <c r="H22" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B21" s="15"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="19">
+    </row>
+    <row r="23" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="23"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B22" s="15"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="19">
-        <v>40</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="21"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="25">
+      <c r="G23" s="15">
         <v>92</v>
       </c>
-      <c r="H23" s="26" t="s">
-        <v>24</v>
+      <c r="H23" s="17" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="D3:D13"/>
+    <mergeCell ref="B3:B13"/>
+    <mergeCell ref="C3:C13"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E14:E15"/>
@@ -1242,13 +1283,15 @@
     <mergeCell ref="D17:D23"/>
     <mergeCell ref="E17:E23"/>
     <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="D3:D13"/>
-    <mergeCell ref="B3:B13"/>
-    <mergeCell ref="C3:C13"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E8:E10" r:id="rId1" display="ScPCA" xr:uid="{5FA65C2E-658C-4700-91B1-257CFF64B77E}"/>
+    <hyperlink ref="E3:E7" r:id="rId2" display="Bhasin Lab" xr:uid="{80FB5AFD-2A53-4102-BD5B-19BF48CCE501}"/>
+    <hyperlink ref="E11:E13" r:id="rId3" display="Bailur et al., GSE154109" xr:uid="{D8FD0A92-F808-4B8D-BB8B-EF71686C793F}"/>
+    <hyperlink ref="E14:E15" r:id="rId4" display="Natarajan et al., GSE200256" xr:uid="{96B37103-AEB7-429D-9522-D42AC838D3BF}"/>
+    <hyperlink ref="E16" r:id="rId5" xr:uid="{2C30718F-C3BD-4216-96AD-79AB4C941511}"/>
+    <hyperlink ref="E17:E23" r:id="rId6" display="TARGET" xr:uid="{899422EA-20A0-4045-B498-982C979BCFA9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/github_files/Table1.xlsx
+++ b/github_files/Table1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emory-my.sharepoint.com/personal/hmumme_emory_edu/Documents/PediatricSCAtlas/PedSCAtlas-Paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="234" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5D7F46B-6DFC-4765-937D-35B8A49F570C}"/>
+  <xr:revisionPtr revIDLastSave="303" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55B95C89-98BB-4EF3-B26B-4A267F1DC67A}"/>
   <bookViews>
-    <workbookView xWindow="5265" yWindow="1215" windowWidth="21600" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
   <si>
     <t>Dataset</t>
   </si>
@@ -131,13 +131,31 @@
   </si>
   <si>
     <t>Single Cell, Biomarkers</t>
+  </si>
+  <si>
+    <t>Rhabdomyosarcoma (RMS)</t>
+  </si>
+  <si>
+    <t>Patel et al., GSE174376</t>
+  </si>
+  <si>
+    <t>Alveolar</t>
+  </si>
+  <si>
+    <t>Embryonal</t>
+  </si>
+  <si>
+    <t>Total Bulk Cancerous</t>
+  </si>
+  <si>
+    <t>Total SC/SN Cancerous</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +199,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -202,7 +227,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -418,6 +443,80 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -432,7 +531,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -497,59 +596,95 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -866,16 +1001,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H23"/>
+  <dimension ref="B1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" style="1"/>
-    <col min="2" max="2" width="17.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" style="1" customWidth="1"/>
@@ -917,16 +1052,16 @@
       </c>
     </row>
     <row r="3" spans="2:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="23" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="10" t="s">
@@ -940,10 +1075,10 @@
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="26"/>
-      <c r="C4" s="32"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="28"/>
-      <c r="E4" s="33"/>
+      <c r="E4" s="24"/>
       <c r="F4" s="13" t="s">
         <v>10</v>
       </c>
@@ -955,10 +1090,10 @@
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="26"/>
-      <c r="C5" s="32"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="28"/>
-      <c r="E5" s="33"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="13" t="s">
         <v>11</v>
       </c>
@@ -970,10 +1105,10 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="26"/>
-      <c r="C6" s="32"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="28"/>
-      <c r="E6" s="33"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="13" t="s">
         <v>12</v>
       </c>
@@ -985,10 +1120,10 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="26"/>
-      <c r="C7" s="32"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="28"/>
-      <c r="E7" s="33"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="13" t="s">
         <v>13</v>
       </c>
@@ -1000,10 +1135,10 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="26"/>
-      <c r="C8" s="32"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="28"/>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="13" t="s">
@@ -1017,10 +1152,10 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="26"/>
-      <c r="C9" s="32"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="28"/>
-      <c r="E9" s="33"/>
+      <c r="E9" s="24"/>
       <c r="F9" s="13" t="s">
         <v>11</v>
       </c>
@@ -1032,10 +1167,10 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="26"/>
-      <c r="C10" s="32"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="28"/>
-      <c r="E10" s="33"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="13" t="s">
         <v>15</v>
       </c>
@@ -1047,10 +1182,10 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="26"/>
-      <c r="C11" s="32"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="28"/>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="25" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="13" t="s">
@@ -1064,10 +1199,10 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="26"/>
-      <c r="C12" s="32"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="28"/>
-      <c r="E12" s="35"/>
+      <c r="E12" s="25"/>
       <c r="F12" s="13" t="s">
         <v>13</v>
       </c>
@@ -1079,10 +1214,10 @@
       </c>
     </row>
     <row r="13" spans="2:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="23"/>
-      <c r="C13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="35"/>
       <c r="D13" s="29"/>
-      <c r="E13" s="36"/>
+      <c r="E13" s="26"/>
       <c r="F13" s="16" t="s">
         <v>15</v>
       </c>
@@ -1094,16 +1229,16 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="38" t="s">
         <v>30</v>
       </c>
       <c r="F14" s="10" t="s">
@@ -1117,10 +1252,10 @@
       </c>
     </row>
     <row r="15" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="23"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="36"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="26"/>
       <c r="F15" s="16" t="s">
         <v>29</v>
       </c>
@@ -1131,166 +1266,234 @@
         <v>183365</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="18" t="s">
+    <row r="16" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="46">
+        <v>6</v>
+      </c>
+      <c r="H16" s="45">
+        <v>41179</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="41"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="47">
+        <v>12</v>
+      </c>
+      <c r="H17" s="44">
+        <v>80053</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C18" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D18" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E18" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F18" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G18" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H18" s="21">
         <v>391505</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="22" t="s">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C19" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D19" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="E19" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G19" s="9">
         <v>274</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H19" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="26"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="12">
-        <v>11</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="26"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="12">
-        <v>264</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="26"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
-      <c r="E20" s="33"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="13" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G20" s="12">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H20" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="26"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
-      <c r="E21" s="33"/>
+      <c r="E21" s="24"/>
       <c r="F21" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G21" s="12">
-        <v>29</v>
+        <v>264</v>
       </c>
       <c r="H21" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="26"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
-      <c r="E22" s="33"/>
+      <c r="E22" s="24"/>
       <c r="F22" s="13" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G22" s="12">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H22" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="23"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="16" t="s">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="31"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="12">
         <v>29</v>
       </c>
-      <c r="G23" s="15">
+      <c r="H23" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="31"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="12">
+        <v>40</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="32"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="15">
         <v>92</v>
       </c>
-      <c r="H23" s="17" t="s">
+      <c r="H25" s="17" t="s">
         <v>23</v>
       </c>
     </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="50">
+        <f>SUM(G14:G17,G3:G9,G11:G12)</f>
+        <v>134</v>
+      </c>
+      <c r="H27" s="50">
+        <f>SUM(H14:H17,H3:H9,H11:H12)</f>
+        <v>782481</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F28" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" s="50">
+        <f>SUM(G19:G25)</f>
+        <v>733</v>
+      </c>
+      <c r="H28" s="50" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="18">
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="C19:C25"/>
+    <mergeCell ref="D19:D25"/>
+    <mergeCell ref="E19:E25"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
     <mergeCell ref="E3:E7"/>
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="D3:D13"/>
     <mergeCell ref="B3:B13"/>
     <mergeCell ref="C3:C13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="C17:C23"/>
-    <mergeCell ref="D17:D23"/>
-    <mergeCell ref="E17:E23"/>
-    <mergeCell ref="C14:C15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E8:E10" r:id="rId1" display="ScPCA" xr:uid="{5FA65C2E-658C-4700-91B1-257CFF64B77E}"/>
     <hyperlink ref="E3:E7" r:id="rId2" display="Bhasin Lab" xr:uid="{80FB5AFD-2A53-4102-BD5B-19BF48CCE501}"/>
     <hyperlink ref="E11:E13" r:id="rId3" display="Bailur et al., GSE154109" xr:uid="{D8FD0A92-F808-4B8D-BB8B-EF71686C793F}"/>
     <hyperlink ref="E14:E15" r:id="rId4" display="Natarajan et al., GSE200256" xr:uid="{96B37103-AEB7-429D-9522-D42AC838D3BF}"/>
-    <hyperlink ref="E16" r:id="rId5" xr:uid="{2C30718F-C3BD-4216-96AD-79AB4C941511}"/>
-    <hyperlink ref="E17:E23" r:id="rId6" display="TARGET" xr:uid="{899422EA-20A0-4045-B498-982C979BCFA9}"/>
+    <hyperlink ref="E18" r:id="rId5" xr:uid="{2C30718F-C3BD-4216-96AD-79AB4C941511}"/>
+    <hyperlink ref="E19:E25" r:id="rId6" display="TARGET" xr:uid="{899422EA-20A0-4045-B498-982C979BCFA9}"/>
+    <hyperlink ref="E16:E17" r:id="rId7" display="Patel et al., GSE174376" xr:uid="{891B9C89-17D5-41D2-AFEA-8EBFECE01F78}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
